--- a/tools/words_list/赋分指标清单.xlsx
+++ b/tools/words_list/赋分指标清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7680"/>
+    <workbookView windowWidth="20490" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="颁布主体行政级别" sheetId="1" r:id="rId1"/>
@@ -7570,10 +7570,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -7584,22 +7584,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7615,7 +7609,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7636,46 +7658,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -7691,10 +7675,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7707,14 +7707,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7722,7 +7722,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7743,7 +7743,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7755,7 +7857,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7767,19 +7893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7791,25 +7905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7821,109 +7917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7947,6 +7947,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -7957,21 +7996,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7993,26 +8017,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -8020,17 +8024,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8042,10 +8042,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8054,133 +8054,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8512,8 +8512,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -8538,7 +8538,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -8549,7 +8549,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -8560,7 +8560,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -8736,7 +8736,7 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -8747,7 +8747,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -8758,7 +8758,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -8769,7 +8769,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -8780,7 +8780,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -8791,7 +8791,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -8802,7 +8802,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -8813,7 +8813,7 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -8824,7 +8824,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -8835,7 +8835,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -8846,7 +8846,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
@@ -8857,7 +8857,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -8868,7 +8868,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
